--- a/09_Human_gaze_detection/Human_gaze_detection_cam/exe/resnet18_cam/resnet18_cam_summary.xlsx
+++ b/09_Human_gaze_detection/Human_gaze_detection_cam/exe/resnet18_cam/resnet18_cam_summary.xlsx
@@ -891,7 +891,7 @@
         <v>224</v>
       </c>
       <c r="S7" t="n">
-        <v>1904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="8" outlineLevel="1">
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>18997</v>
+        <v>17990</v>
       </c>
     </row>
     <row r="42">
